--- a/public/DataJabatan/Daftar Jabatan di Wakaf Salman Import.xlsx
+++ b/public/DataJabatan/Daftar Jabatan di Wakaf Salman Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADD9566-48F0-4479-A9EE-0D54B6BB5E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88B16A8D-3E72-4476-8B49-1589D041094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,12 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Manager Operational</t>
-  </si>
-  <si>
-    <t>Manager Marketing</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -376,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B2"/>
+  <dimension ref="B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,11 +387,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
